--- a/0.3 Modelling/0.2 Outputs/0.1 Scores/classifier_scores.xlsx
+++ b/0.3 Modelling/0.2 Outputs/0.1 Scores/classifier_scores.xlsx
@@ -22,10 +22,10 @@
     <t>model</t>
   </si>
   <si>
-    <t>timepoint</t>
+    <t>mode</t>
   </si>
   <si>
-    <t>mode</t>
+    <t>timepoint</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -82,12 +82,6 @@
     <t>XGBClassifier + Feature Selection</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>feature selection</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
   </si>
   <si>
     <t>PR_score</t>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -504,94 +504,94 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.9444444444444444</v>
+        <v>0.8997222222222228</v>
       </c>
       <c r="F2">
-        <v>0.921875</v>
+        <v>0.8781640625</v>
       </c>
       <c r="G2">
-        <v>0.8214285714285714</v>
+        <v>0.614506122962006</v>
       </c>
       <c r="H2">
-        <v>0.6666666666666666</v>
+        <v>0.5815476190476184</v>
       </c>
       <c r="I2">
-        <v>0.5555555555555556</v>
+        <v>0.5947556390977438</v>
       </c>
       <c r="J2">
-        <v>0.6859943405700353</v>
+        <v>0.5268647700803616</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>0.9166666666666666</v>
+        <v>0.9338888888888885</v>
       </c>
       <c r="F3">
-        <v>0.859375</v>
+        <v>0.91171875</v>
       </c>
       <c r="G3">
-        <v>0.7954545454545454</v>
+        <v>0.7943001628089413</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.5649523809523801</v>
       </c>
       <c r="I3">
-        <v>0.2941176470588235</v>
+        <v>0.4594771241830072</v>
       </c>
       <c r="J3">
-        <v>0.4780914437337574</v>
+        <v>0.6060347281161613</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>0.8611111111111112</v>
+        <v>0.839722222222222</v>
       </c>
       <c r="F4">
-        <v>0.8671875</v>
+        <v>0.843515625</v>
       </c>
       <c r="G4">
-        <v>0.3838235294117647</v>
+        <v>0.3815548228025132</v>
       </c>
       <c r="H4">
-        <v>0.4444444444444445</v>
+        <v>0.4801802641802641</v>
       </c>
       <c r="I4">
-        <v>0.4761904761904762</v>
+        <v>0.5792891983218067</v>
       </c>
       <c r="J4">
-        <v>0.3691751922605921</v>
+        <v>0.4259672295289984</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -600,10 +600,10 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0.9166666666666666</v>
+        <v>0.9166666666666674</v>
       </c>
       <c r="F5">
         <v>0.76953125</v>
@@ -612,77 +612,77 @@
         <v>0.59375</v>
       </c>
       <c r="H5">
-        <v>0.6666666666666665</v>
+        <v>0.6666666666666659</v>
       </c>
       <c r="I5">
-        <v>0.7142857142857143</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J5">
-        <v>0.6247580176717713</v>
+        <v>0.6247580176717719</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0.9166666666666666</v>
+        <v>0.9100000000000003</v>
       </c>
       <c r="F6">
-        <v>0.765625</v>
+        <v>0.7763671875</v>
       </c>
       <c r="G6">
-        <v>0.5520833333333333</v>
+        <v>0.6955957491582493</v>
       </c>
       <c r="H6">
-        <v>0.6666666666666665</v>
+        <v>0.6509999999999995</v>
       </c>
       <c r="I6">
-        <v>0.7142857142857143</v>
+        <v>0.7065584415584416</v>
       </c>
       <c r="J6">
-        <v>0.6247580176717713</v>
+        <v>0.6080844062613372</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>0.8611111111111112</v>
+        <v>0.7916666666666672</v>
       </c>
       <c r="F7">
-        <v>0.765625</v>
+        <v>0.70578125</v>
       </c>
       <c r="G7">
-        <v>0.4339285714285714</v>
+        <v>0.402216673188099</v>
       </c>
       <c r="H7">
-        <v>0.2857142857142858</v>
+        <v>0.3324282547517841</v>
       </c>
       <c r="I7">
-        <v>0.2631578947368421</v>
+        <v>0.385599095633026</v>
       </c>
       <c r="J7">
-        <v>0.2132007163556104</v>
+        <v>0.241729036489563</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -696,25 +696,25 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0.8888888888888888</v>
+        <v>0.9008333333333328</v>
       </c>
       <c r="F8">
-        <v>0.9453125</v>
+        <v>0.9369531250000001</v>
       </c>
       <c r="G8">
-        <v>0.5428571428571428</v>
+        <v>0.523900793650794</v>
       </c>
       <c r="H8">
-        <v>0.6</v>
+        <v>0.5811111111111107</v>
       </c>
       <c r="I8">
-        <v>0.6818181818181818</v>
+        <v>0.6088528138528141</v>
       </c>
       <c r="J8">
-        <v>0.5533985905294664</v>
+        <v>0.5285732055226297</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -725,28 +725,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0.9722222222222222</v>
+        <v>0.929166666666666</v>
       </c>
       <c r="F9">
-        <v>0.921875</v>
+        <v>0.9408593750000001</v>
       </c>
       <c r="G9">
-        <v>0.8214285714285714</v>
+        <v>0.7940812542421611</v>
       </c>
       <c r="H9">
-        <v>0.8571428571428571</v>
+        <v>0.5572380952380944</v>
       </c>
       <c r="I9">
-        <v>0.7894736842105263</v>
+        <v>0.4770055039559689</v>
       </c>
       <c r="J9">
-        <v>0.8528028654224418</v>
+        <v>0.5684586854879414</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -757,28 +757,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>0.8611111111111112</v>
+        <v>0.864166666666667</v>
       </c>
       <c r="F10">
-        <v>0.77734375</v>
+        <v>0.87078125</v>
       </c>
       <c r="G10">
-        <v>0.295959595959596</v>
+        <v>0.4072793776979888</v>
       </c>
       <c r="H10">
-        <v>0.4444444444444445</v>
+        <v>0.5670670375376254</v>
       </c>
       <c r="I10">
-        <v>0.4761904761904762</v>
+        <v>0.6742189558733788</v>
       </c>
       <c r="J10">
-        <v>0.3691751922605921</v>
+        <v>0.5271968429579282</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -792,25 +792,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>0.8333333333333334</v>
+        <v>0.8888888888888871</v>
       </c>
       <c r="F11">
-        <v>0.8828125</v>
+        <v>0.875</v>
       </c>
       <c r="G11">
-        <v>0.5352564102564102</v>
+        <v>0.6696428571428561</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.3162277660168379</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -821,28 +821,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.9444444444444444</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>0.890625</v>
+        <v>0.941015625</v>
       </c>
       <c r="G12">
-        <v>0.6706730769230769</v>
+        <v>0.8204034796902446</v>
       </c>
       <c r="H12">
-        <v>0.6666666666666666</v>
+        <v>0.7195952380952376</v>
       </c>
       <c r="I12">
-        <v>0.5555555555555556</v>
+        <v>0.6363476092191271</v>
       </c>
       <c r="J12">
-        <v>0.6859943405700353</v>
+        <v>0.7222408018127427</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -853,65 +853,65 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0.8888888888888888</v>
+        <v>0.8319444444444453</v>
       </c>
       <c r="F13">
-        <v>0.84375</v>
+        <v>0.84328125</v>
       </c>
       <c r="G13">
-        <v>0.375</v>
+        <v>0.3943909188637451</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.4418606948606946</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>0.5216749337618896</v>
       </c>
       <c r="J13">
-        <v>0.4375</v>
+        <v>0.370498585674655</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>0.8888888888888888</v>
+        <v>0.9147222222222227</v>
       </c>
       <c r="F14">
-        <v>0.8359375</v>
+        <v>0.7328125</v>
       </c>
       <c r="G14">
-        <v>0.3534090909090909</v>
+        <v>0.4044560529928261</v>
       </c>
       <c r="H14">
-        <v>0.3333333333333333</v>
+        <v>0.3719999999999993</v>
       </c>
       <c r="I14">
-        <v>0.2777777777777778</v>
+        <v>0.2735294117647056</v>
       </c>
       <c r="J14">
-        <v>0.3001225239993904</v>
+        <v>0.4446250426723949</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -920,94 +920,94 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>0.8888888888888888</v>
+        <v>0.8888888888888887</v>
       </c>
       <c r="F15">
-        <v>0.890625</v>
+        <v>0.84984375</v>
       </c>
       <c r="G15">
-        <v>0.6706730769230769</v>
+        <v>0.535931576548517</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.4626587301587299</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.4445050125313285</v>
       </c>
       <c r="J15">
-        <v>0.4375</v>
+        <v>0.4068327702072967</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>0.7222222222222222</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="F16">
-        <v>0.28125</v>
+        <v>0.387109375</v>
       </c>
       <c r="G16">
-        <v>0.09768492769744161</v>
+        <v>0.122083346335704</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0438956043956044</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04490144037822057</v>
       </c>
       <c r="J16">
-        <v>-0.158113883008419</v>
+        <v>-0.08750276329767909</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>0.4444444444444444</v>
+        <v>0.4444444444444435</v>
       </c>
       <c r="F17">
         <v>0.4140625</v>
       </c>
       <c r="G17">
-        <v>0.1199494949494949</v>
+        <v>0.1199494949494948</v>
       </c>
       <c r="H17">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="I17">
-        <v>0.2777777777777778</v>
+        <v>0.2777777777777783</v>
       </c>
       <c r="J17">
-        <v>-0.03952847075210474</v>
+        <v>-0.03952847075210467</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1016,57 +1016,57 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>0.4722222222222222</v>
+        <v>0.4816666666666663</v>
       </c>
       <c r="F18">
-        <v>0.46875</v>
+        <v>0.4803125</v>
       </c>
       <c r="G18">
-        <v>0.1285353535353535</v>
+        <v>0.1302076992693365</v>
       </c>
       <c r="H18">
-        <v>0.1739130434782609</v>
+        <v>0.1810701160014663</v>
       </c>
       <c r="I18">
-        <v>0.2857142857142857</v>
+        <v>0.2955866250161791</v>
       </c>
       <c r="J18">
-        <v>-0.01967223688411584</v>
+        <v>-0.006117055088829613</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.7777777777777778</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="F19">
-        <v>0.5234375</v>
+        <v>0.346171875</v>
       </c>
       <c r="G19">
-        <v>0.3590277777777778</v>
+        <v>0.154055891650778</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.1162156140571351</v>
       </c>
       <c r="I19">
-        <v>0.2272727272727273</v>
+        <v>0.2072298903075105</v>
       </c>
       <c r="J19">
-        <v>0.07905694150420949</v>
+        <v>-0.1901202546650935</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1077,19 +1077,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>0.8333333333333334</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F20">
         <v>0.359375</v>
       </c>
       <c r="G20">
-        <v>0.1111111111111111</v>
+        <v>0.1111111111111109</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.08574929257125441</v>
+        <v>-0.08574929257125424</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1112,25 +1112,25 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>0.8611111111111112</v>
+        <v>0.8616666666666668</v>
       </c>
       <c r="F21">
-        <v>0.7890625</v>
+        <v>0.7859375</v>
       </c>
       <c r="G21">
-        <v>0.2931077694235589</v>
+        <v>0.3679489427327776</v>
       </c>
       <c r="H21">
-        <v>0.5454545454545454</v>
+        <v>0.1285317460317461</v>
       </c>
       <c r="I21">
-        <v>0.6521739130434783</v>
+        <v>0.1159402181925402</v>
       </c>
       <c r="J21">
-        <v>0.4962916669854651</v>
+        <v>0.07572178063395213</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1141,19 +1141,19 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.7222222222222222</v>
+        <v>0.7686111111111116</v>
       </c>
       <c r="F22">
-        <v>0.40625</v>
+        <v>0.4884375</v>
       </c>
       <c r="G22">
-        <v>0.1111111111111111</v>
+        <v>0.1258314214248748</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.158113883008419</v>
+        <v>-0.1288914374617913</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1173,28 +1173,28 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888871</v>
       </c>
       <c r="F23">
-        <v>0.671875</v>
+        <v>0.8359375</v>
       </c>
       <c r="G23">
-        <v>0.2405913978494624</v>
+        <v>0.3500000000000006</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6818181818181815</v>
       </c>
       <c r="J23">
-        <v>-0.125</v>
+        <v>0.5533985905294669</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1208,25 +1208,25 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.8611111111111112</v>
+        <v>0.8536111111111118</v>
       </c>
       <c r="F24">
-        <v>0.796875</v>
+        <v>0.828125</v>
       </c>
       <c r="G24">
-        <v>0.3934782608695652</v>
+        <v>0.4368171893660251</v>
       </c>
       <c r="H24">
-        <v>0.4444444444444445</v>
+        <v>0.3643650793650791</v>
       </c>
       <c r="I24">
-        <v>0.4761904761904762</v>
+        <v>0.3811369332421962</v>
       </c>
       <c r="J24">
-        <v>0.3691751922605921</v>
+        <v>0.2855132772680284</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1237,19 +1237,19 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>0.6944444444444444</v>
+        <v>0.7544444444444446</v>
       </c>
       <c r="F25">
-        <v>0.6015625</v>
+        <v>0.342109375</v>
       </c>
       <c r="G25">
-        <v>0.1742424242424243</v>
+        <v>0.1107745646621078</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>-0.1737020834449128</v>
+        <v>-0.1374908841275696</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.9150000000000006</v>
       </c>
       <c r="E2">
-        <v>0.57421875</v>
+        <v>0.6196874999999999</v>
       </c>
       <c r="F2">
-        <v>0.3412698412698416</v>
+        <v>0.3227777777777774</v>
       </c>
       <c r="G2">
-        <v>0.1818181818181819</v>
+        <v>0.3828571428571421</v>
       </c>
       <c r="H2">
-        <v>0.2941176470588232</v>
+        <v>0.2820433436532505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4563188787106262</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.7777777777777771</v>
+        <v>0.8441666666666663</v>
       </c>
       <c r="E3">
-        <v>0.7421875</v>
+        <v>0.66953125</v>
       </c>
       <c r="F3">
-        <v>0.4302083333333329</v>
+        <v>0.2535426587301586</v>
       </c>
       <c r="G3">
-        <v>0.3333333333333329</v>
+        <v>0.3283038073038071</v>
       </c>
       <c r="H3">
-        <v>0.4166666666666665</v>
+        <v>0.3854754591103694</v>
       </c>
       <c r="I3">
-        <v>0.2362277956307676</v>
+        <v>0.2765913336668633</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666659</v>
+        <v>0.9077777777777771</v>
       </c>
       <c r="E4">
-        <v>0.57421875</v>
+        <v>0.876953125</v>
       </c>
       <c r="F4">
-        <v>0.3535353535353534</v>
+        <v>0.7420301642801642</v>
       </c>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.2596190476190474</v>
       </c>
       <c r="H4">
-        <v>0.3571428571428571</v>
+        <v>0.1987788097695219</v>
       </c>
       <c r="I4">
-        <v>0.125</v>
+        <v>0.2982214868009209</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.897499999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.6634375</v>
+        <v>0.57421875</v>
       </c>
       <c r="F5">
-        <v>0.3058333333333332</v>
+        <v>0.3412698412698416</v>
       </c>
       <c r="G5">
-        <v>0.4395555555555555</v>
+        <v>0.1818181818181819</v>
       </c>
       <c r="H5">
-        <v>0.3870681605975728</v>
+        <v>0.2941176470588232</v>
       </c>
       <c r="I5">
-        <v>0.4121807009916357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.8044444444444453</v>
+        <v>0.8277777777777776</v>
       </c>
       <c r="E6">
-        <v>0.5596875</v>
+        <v>0.5940625</v>
       </c>
       <c r="F6">
-        <v>0.181888888888889</v>
+        <v>0.3024730549308371</v>
       </c>
       <c r="G6">
-        <v>0.2177777777777776</v>
+        <v>0.2034720279720279</v>
       </c>
       <c r="H6">
-        <v>0.2333333333333331</v>
+        <v>0.21525276400586</v>
       </c>
       <c r="I6">
-        <v>0.1084807103411893</v>
+        <v>0.1280878351926978</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>0.9005555555555546</v>
+        <v>0.6611111111111101</v>
       </c>
       <c r="E7">
-        <v>0.679375</v>
+        <v>0.6037890625</v>
       </c>
       <c r="F7">
-        <v>0.3172222222222224</v>
+        <v>0.3531275387757921</v>
       </c>
       <c r="G7">
-        <v>0.4579999999999997</v>
+        <v>0.1510651855884052</v>
       </c>
       <c r="H7">
-        <v>0.413529411764706</v>
+        <v>0.2067424899596759</v>
       </c>
       <c r="I7">
-        <v>0.4545484063681783</v>
+        <v>-0.01160024300938271</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1485,22 +1485,22 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>0.808888888888888</v>
+        <v>0.8888888888888871</v>
       </c>
       <c r="E8">
-        <v>0.7378125</v>
+        <v>0.703984375</v>
       </c>
       <c r="F8">
-        <v>0.3109403651903656</v>
+        <v>0.304849206349207</v>
       </c>
       <c r="G8">
-        <v>0.2940000000000003</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.3340909090909094</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1935965016899291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0.7805555555555566</v>
+        <v>0.8888888888888871</v>
       </c>
       <c r="E9">
-        <v>0.601875</v>
+        <v>0.765</v>
       </c>
       <c r="F9">
-        <v>0.1922828282828287</v>
+        <v>0.2511031448127037</v>
       </c>
       <c r="G9">
-        <v>0.1866666666666666</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06334752860456573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>0.8944444444444435</v>
+        <v>0.8938888888888874</v>
       </c>
       <c r="E10">
-        <v>0.72734375</v>
+        <v>0.9595703125</v>
       </c>
       <c r="F10">
-        <v>0.4477696123321133</v>
+        <v>0.7833387862137871</v>
       </c>
       <c r="G10">
-        <v>0.3666666666666667</v>
+        <v>0.09009523809523809</v>
       </c>
       <c r="H10">
-        <v>0.3055555555555559</v>
+        <v>0.07098383212934295</v>
       </c>
       <c r="I10">
-        <v>0.3387097056564549</v>
+        <v>0.09793909696987811</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1575,19 +1575,19 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E11">
-        <v>0.6875</v>
+        <v>0.80859375</v>
       </c>
       <c r="F11">
-        <v>0.2222222222222218</v>
+        <v>0.3492063492063486</v>
       </c>
       <c r="G11">
-        <v>0.3999999999999992</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.4545454545454538</v>
+        <v>0.625</v>
       </c>
       <c r="I11">
-        <v>0.3162277660168373</v>
+        <v>0.4488328116984583</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>0.8888888888888871</v>
+        <v>0.8361111111111118</v>
       </c>
       <c r="E12">
-        <v>0.71875</v>
+        <v>0.728984375</v>
       </c>
       <c r="F12">
-        <v>0.3055555555555562</v>
+        <v>0.2793295768983006</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.418421134421134</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.4795947675512885</v>
       </c>
       <c r="I12">
-        <v>0.4375</v>
+        <v>0.3421184197617961</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>0.8611111111111129</v>
+        <v>0.9174999999999993</v>
       </c>
       <c r="E13">
-        <v>0.703125</v>
+        <v>0.973125</v>
       </c>
       <c r="F13">
-        <v>0.2555555555555561</v>
+        <v>0.8642709235209242</v>
       </c>
       <c r="G13">
-        <v>0.4444444444444435</v>
+        <v>0.3718809523809521</v>
       </c>
       <c r="H13">
-        <v>0.4761904761904751</v>
+        <v>0.3020132438940491</v>
       </c>
       <c r="I13">
-        <v>0.3691751922605918</v>
+        <v>0.4037412184509186</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1701,86 +1701,86 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777771</v>
       </c>
       <c r="F2">
-        <v>0.41015625</v>
+        <v>0.44140625</v>
       </c>
       <c r="G2">
-        <v>0.1252405206564799</v>
+        <v>0.136434837092732</v>
       </c>
       <c r="H2">
-        <v>0.1666666666666667</v>
+        <v>0.1999999999999996</v>
       </c>
       <c r="I2">
-        <v>0.2083333333333333</v>
+        <v>0.2272727272727269</v>
       </c>
       <c r="J2">
-        <v>0.0236227795630767</v>
+        <v>0.07905694150420933</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>0.6666666666666666</v>
+        <v>0.6769444444444437</v>
       </c>
       <c r="F3">
-        <v>0.390625</v>
+        <v>0.3879296875</v>
       </c>
       <c r="G3">
-        <v>0.1151928770463253</v>
+        <v>0.1197414624779729</v>
       </c>
       <c r="H3">
-        <v>0.1428571428571429</v>
+        <v>0.1430961538461537</v>
       </c>
       <c r="I3">
-        <v>0.1923076923076923</v>
+        <v>0.1896304436304435</v>
       </c>
       <c r="J3">
-        <v>-0.02192645048267573</v>
+        <v>-0.01848950761585824</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>0.6111111111111112</v>
+        <v>0.6111111111111124</v>
       </c>
       <c r="F4">
-        <v>0.484375</v>
+        <v>0.40625</v>
       </c>
       <c r="G4">
-        <v>0.1147612270714738</v>
+        <v>0.1058006535947714</v>
       </c>
       <c r="H4">
         <v>0.125</v>
       </c>
       <c r="I4">
-        <v>0.1785714285714286</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="J4">
         <v>-0.0625</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1797,89 +1797,89 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666659</v>
       </c>
       <c r="F5">
         <v>0.453125</v>
       </c>
       <c r="G5">
-        <v>0.3351953601953602</v>
+        <v>0.3351953601953601</v>
       </c>
       <c r="H5">
-        <v>0.1428571428571429</v>
+        <v>0.1428571428571427</v>
       </c>
       <c r="I5">
         <v>0.1923076923076923</v>
       </c>
       <c r="J5">
-        <v>-0.02192645048267573</v>
+        <v>-0.02192645048267572</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0.6666666666666666</v>
+        <v>0.6752777777777769</v>
       </c>
       <c r="F6">
-        <v>0.5546875</v>
+        <v>0.512890625</v>
       </c>
       <c r="G6">
-        <v>0.3509920634920635</v>
+        <v>0.3232206968156894</v>
       </c>
       <c r="H6">
-        <v>0.1428571428571429</v>
+        <v>0.1464249084249083</v>
       </c>
       <c r="I6">
-        <v>0.1923076923076923</v>
+        <v>0.1947549857549856</v>
       </c>
       <c r="J6">
-        <v>-0.02192645048267573</v>
+        <v>-0.01499584748668102</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>0.5555555555555556</v>
+        <v>0.5555555555555567</v>
       </c>
       <c r="F7">
         <v>0.515625</v>
       </c>
       <c r="G7">
-        <v>0.1601086956521739</v>
+        <v>0.1601086956521737</v>
       </c>
       <c r="H7">
-        <v>0.1111111111111111</v>
+        <v>0.1111111111111109</v>
       </c>
       <c r="I7">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="J7">
-        <v>-0.1007278705031725</v>
+        <v>-0.1007278705031726</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1893,25 +1893,25 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0.7222222222222222</v>
+        <v>0.6897222222222211</v>
       </c>
       <c r="F8">
-        <v>0.2734375</v>
+        <v>0.255234375</v>
       </c>
       <c r="G8">
-        <v>0.1101233237547893</v>
+        <v>0.100739356105809</v>
       </c>
       <c r="H8">
-        <v>0.1666666666666667</v>
+        <v>0.1519963369963368</v>
       </c>
       <c r="I8">
-        <v>0.2083333333333333</v>
+        <v>0.1986987179487177</v>
       </c>
       <c r="J8">
-        <v>0.0236227795630767</v>
+        <v>-0.003710533291250864</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1922,28 +1922,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0.6666666666666666</v>
+        <v>0.6638888888888879</v>
       </c>
       <c r="F9">
-        <v>0.34375</v>
+        <v>0.3440625</v>
       </c>
       <c r="G9">
-        <v>0.1095328282828283</v>
+        <v>0.1074975449134106</v>
       </c>
       <c r="H9">
-        <v>0.1428571428571429</v>
+        <v>0.08338095238095246</v>
       </c>
       <c r="I9">
-        <v>0.1923076923076923</v>
+        <v>0.1109537037037037</v>
       </c>
       <c r="J9">
-        <v>-0.02192645048267573</v>
+        <v>-0.09404471428548461</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1954,25 +1954,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>0.6111111111111112</v>
+        <v>0.6111111111111124</v>
       </c>
       <c r="F10">
-        <v>0.4453125</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.1349673202614379</v>
+        <v>0.1184934017595309</v>
       </c>
       <c r="H10">
         <v>0.125</v>
       </c>
       <c r="I10">
-        <v>0.1785714285714286</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="J10">
         <v>-0.0625</v>
@@ -1989,25 +1989,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>0.6388888888888888</v>
+        <v>0.6666666666666659</v>
       </c>
       <c r="F11">
-        <v>0.453125</v>
+        <v>0.38671875</v>
       </c>
       <c r="G11">
-        <v>0.1349673202614379</v>
+        <v>0.109093567251462</v>
       </c>
       <c r="H11">
-        <v>0.1333333333333333</v>
+        <v>0.1428571428571427</v>
       </c>
       <c r="I11">
-        <v>0.1851851851851852</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J11">
-        <v>-0.04264014327112208</v>
+        <v>-0.02192645048267572</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2018,28 +2018,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.6666666666666666</v>
+        <v>0.6672222222222216</v>
       </c>
       <c r="F12">
-        <v>0.40625</v>
+        <v>0.37015625</v>
       </c>
       <c r="G12">
-        <v>0.1162173202614379</v>
+        <v>0.1169531548718724</v>
       </c>
       <c r="H12">
-        <v>0.1428571428571429</v>
+        <v>0.143106227106227</v>
       </c>
       <c r="I12">
-        <v>0.1923076923076923</v>
+        <v>0.1924729344729345</v>
       </c>
       <c r="J12">
-        <v>-0.02192645048267573</v>
+        <v>-0.02146366631913762</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2050,25 +2050,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0.6111111111111112</v>
+        <v>0.6111111111111124</v>
       </c>
       <c r="F13">
-        <v>0.421875</v>
+        <v>0.40625</v>
       </c>
       <c r="G13">
-        <v>0.1099673202614379</v>
+        <v>0.1076945929887108</v>
       </c>
       <c r="H13">
         <v>0.125</v>
       </c>
       <c r="I13">
-        <v>0.1785714285714286</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="J13">
         <v>-0.0625</v>
@@ -2076,39 +2076,39 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>0.6388888888888888</v>
+        <v>0.5555555555555567</v>
       </c>
       <c r="F14">
-        <v>0.55859375</v>
+        <v>0.53125</v>
       </c>
       <c r="G14">
-        <v>0.1879166666666667</v>
+        <v>0.1623482726423902</v>
       </c>
       <c r="H14">
-        <v>0.1333333333333333</v>
+        <v>0.1999999999999996</v>
       </c>
       <c r="I14">
-        <v>0.1851851851851852</v>
+        <v>0.3125</v>
       </c>
       <c r="J14">
-        <v>-0.04264014327112208</v>
+        <v>0.03952847075210467</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -2117,94 +2117,94 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>0.7222222222222222</v>
+        <v>0.704444444444444</v>
       </c>
       <c r="F15">
-        <v>0.671875</v>
+        <v>0.65453125</v>
       </c>
       <c r="G15">
-        <v>0.1888888888888889</v>
+        <v>0.1862612776846465</v>
       </c>
       <c r="H15">
-        <v>0.2857142857142858</v>
+        <v>0.2227944294267823</v>
       </c>
       <c r="I15">
-        <v>0.3846153846153846</v>
+        <v>0.2992087126461187</v>
       </c>
       <c r="J15">
-        <v>0.1754116038614059</v>
+        <v>0.09278640015585342</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>0.6111111111111112</v>
+        <v>0.5638888888888899</v>
       </c>
       <c r="F16">
-        <v>0.46484375</v>
+        <v>0.4953125</v>
       </c>
       <c r="G16">
-        <v>0.1231592238171186</v>
+        <v>0.1250222307250337</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1399999999999998</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="J16">
-        <v>-0.2192645048267573</v>
+        <v>-0.04268630687087815</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>0.5555555555555556</v>
+        <v>0.5555555555555567</v>
       </c>
       <c r="F17">
         <v>0.3125</v>
       </c>
       <c r="G17">
-        <v>0.1022509578544061</v>
+        <v>0.102250957854406</v>
       </c>
       <c r="H17">
-        <v>0.1111111111111111</v>
+        <v>0.1111111111111109</v>
       </c>
       <c r="I17">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="J17">
-        <v>-0.1007278705031725</v>
+        <v>-0.1007278705031726</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -2213,57 +2213,57 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>0.5833333333333334</v>
+        <v>0.5763888888888899</v>
       </c>
       <c r="F18">
-        <v>0.421875</v>
+        <v>0.413203125</v>
       </c>
       <c r="G18">
-        <v>0.1163461538461538</v>
+        <v>0.1168945439124407</v>
       </c>
       <c r="H18">
-        <v>0.1176470588235294</v>
+        <v>0.1160882352941174</v>
       </c>
       <c r="I18">
-        <v>0.1724137931034483</v>
+        <v>0.1710144134282065</v>
       </c>
       <c r="J18">
-        <v>-0.08178608201095307</v>
+        <v>-0.08648824790533002</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.3888888888888889</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="F19">
-        <v>0.4765625</v>
+        <v>0.49296875</v>
       </c>
       <c r="G19">
-        <v>0.1403642334676817</v>
+        <v>0.1360574365691164</v>
       </c>
       <c r="H19">
-        <v>0.1538461538461539</v>
+        <v>0.2061538461538457</v>
       </c>
       <c r="I19">
-        <v>0.2631578947368421</v>
+        <v>0.376819708846585</v>
       </c>
       <c r="J19">
-        <v>-0.08058229640253803</v>
+        <v>0.07521863207247494</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2274,19 +2274,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>0.6944444444444444</v>
+        <v>0.6847222222222211</v>
       </c>
       <c r="F20">
-        <v>0.5625</v>
+        <v>0.553203125</v>
       </c>
       <c r="G20">
-        <v>0.1507954545454546</v>
+        <v>0.141420720752416</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.1737020834449128</v>
+        <v>-0.1790501370158079</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2309,25 +2309,25 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>0.6944444444444444</v>
+        <v>0.701944444444444</v>
       </c>
       <c r="F21">
-        <v>0.59375</v>
+        <v>0.59453125</v>
       </c>
       <c r="G21">
-        <v>0.1655092592592592</v>
+        <v>0.1612618244481777</v>
       </c>
       <c r="H21">
-        <v>0.2666666666666667</v>
+        <v>0.1259371739371739</v>
       </c>
       <c r="I21">
-        <v>0.3703703703703704</v>
+        <v>0.1634409141583056</v>
       </c>
       <c r="J21">
-        <v>0.1492405014489273</v>
+        <v>-0.02693202859230284</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2338,28 +2338,28 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.5555555555555556</v>
+        <v>0.5555555555555567</v>
       </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>0.5556640625</v>
       </c>
       <c r="G22">
-        <v>0.08976648351648352</v>
+        <v>0.1622532808737531</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1579999999999998</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.246875</v>
       </c>
       <c r="J22">
-        <v>-0.25</v>
+        <v>-0.02127250810583733</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2370,28 +2370,28 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.6111111111111112</v>
+        <v>0.6944444444444433</v>
       </c>
       <c r="F23">
-        <v>0.5859375</v>
+        <v>0.578125</v>
       </c>
       <c r="G23">
-        <v>0.2017045454545455</v>
+        <v>0.1613965744400527</v>
       </c>
       <c r="H23">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666665</v>
       </c>
       <c r="I23">
-        <v>0.3333333333333333</v>
+        <v>0.3703703703703707</v>
       </c>
       <c r="J23">
-        <v>0.08058229640253803</v>
+        <v>0.1492405014489274</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2405,25 +2405,25 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.6666666666666666</v>
+        <v>0.6894444444444437</v>
       </c>
       <c r="F24">
-        <v>0.6015625</v>
+        <v>0.598125</v>
       </c>
       <c r="G24">
-        <v>0.1590166369578134</v>
+        <v>0.162926680647526</v>
       </c>
       <c r="H24">
-        <v>0.25</v>
+        <v>0.1740892440892441</v>
       </c>
       <c r="I24">
-        <v>0.3571428571428572</v>
+        <v>0.2333348817044469</v>
       </c>
       <c r="J24">
-        <v>0.125</v>
+        <v>0.02653091727937743</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2434,28 +2434,28 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>0.75</v>
+        <v>0.5897222222222231</v>
       </c>
       <c r="F25">
-        <v>0.328125</v>
+        <v>0.60515625</v>
       </c>
       <c r="G25">
-        <v>0.1077943196509373</v>
+        <v>0.2250407475490196</v>
       </c>
       <c r="H25">
-        <v>0.1818181818181818</v>
+        <v>0.22</v>
       </c>
       <c r="I25">
-        <v>0.2173913043478261</v>
+        <v>0.3499999999999996</v>
       </c>
       <c r="J25">
-        <v>0.04962916669854651</v>
+        <v>0.1010453878975378</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2502,28 +2502,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666659</v>
+        <v>0.7777777777777771</v>
       </c>
       <c r="E2">
-        <v>0.390625</v>
+        <v>0.4375</v>
       </c>
       <c r="F2">
-        <v>0.202777777777778</v>
+        <v>0.2082921607378126</v>
       </c>
       <c r="G2">
-        <v>0.1428571428571427</v>
+        <v>0.1999999999999996</v>
       </c>
       <c r="H2">
-        <v>0.1923076923076923</v>
+        <v>0.2272727272727269</v>
       </c>
       <c r="I2">
-        <v>-0.02192645048267572</v>
+        <v>0.07905694150420933</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2531,28 +2531,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.5277777777777785</v>
+        <v>0.7447222222222228</v>
       </c>
       <c r="E3">
-        <v>0.53125</v>
+        <v>0.5745703125</v>
       </c>
       <c r="F3">
-        <v>0.2230848861283644</v>
+        <v>0.1533142878363469</v>
       </c>
       <c r="G3">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1612903225806455</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.1195228609334395</v>
+        <v>-0.1442052313041531</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2560,28 +2560,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.6944444444444433</v>
+        <v>0.8225000000000007</v>
       </c>
       <c r="E4">
-        <v>0.4921875</v>
+        <v>0.45484375</v>
       </c>
       <c r="F4">
-        <v>0.2162858422939067</v>
+        <v>0.1741412433930526</v>
       </c>
       <c r="G4">
-        <v>0.1538461538461537</v>
+        <v>0.2341666666666665</v>
       </c>
       <c r="H4">
-        <v>0.1999999999999996</v>
+        <v>0.238627819548872</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1354939327957257</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2589,28 +2589,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6888888888888881</v>
+        <v>0.6666666666666659</v>
       </c>
       <c r="E5">
-        <v>0.496875</v>
+        <v>0.390625</v>
       </c>
       <c r="F5">
-        <v>0.1111742424242425</v>
+        <v>0.202777777777778</v>
       </c>
       <c r="G5">
-        <v>0.1533333333333332</v>
+        <v>0.1428571428571427</v>
       </c>
       <c r="H5">
-        <v>0.1990740740740742</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I5">
-        <v>-0.002882389570602815</v>
+        <v>-0.02192645048267572</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2618,28 +2618,28 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.5833333333333341</v>
+        <v>0.5277777777777785</v>
       </c>
       <c r="E6">
-        <v>0.328125</v>
+        <v>0.51828125</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111109</v>
+        <v>0.1708146480331261</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1612903225806455</v>
       </c>
       <c r="I6">
-        <v>-0.2345207879911716</v>
+        <v>-0.1195228609334395</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2647,28 +2647,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>0.7222222222222224</v>
+        <v>0.7024999999999991</v>
       </c>
       <c r="E7">
-        <v>0.515625</v>
+        <v>0.44390625</v>
       </c>
       <c r="F7">
-        <v>0.1145833333333334</v>
+        <v>0.2206607459363028</v>
       </c>
       <c r="G7">
-        <v>0.1666666666666665</v>
+        <v>0.1579530469530467</v>
       </c>
       <c r="H7">
-        <v>0.2083333333333333</v>
+        <v>0.202548464015855</v>
       </c>
       <c r="I7">
-        <v>0.02362277956307674</v>
+        <v>0.00722143717116853</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2682,22 +2682,22 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>0.8055555555555567</v>
+        <v>0.7966666666666672</v>
       </c>
       <c r="E8">
-        <v>0.55078125</v>
+        <v>0.5001171875</v>
       </c>
       <c r="F8">
-        <v>0.1445378151260503</v>
+        <v>0.1303055555555555</v>
       </c>
       <c r="G8">
-        <v>0.2222222222222218</v>
+        <v>0.167262626262626</v>
       </c>
       <c r="H8">
-        <v>0.2380952380952375</v>
+        <v>0.1772604931300581</v>
       </c>
       <c r="I8">
-        <v>0.1135923668494131</v>
+        <v>0.05351196253831612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2705,28 +2705,28 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0.833333333333333</v>
+        <v>0.6033333333333346</v>
       </c>
       <c r="E9">
-        <v>0.57421875</v>
+        <v>0.418125</v>
       </c>
       <c r="F9">
-        <v>0.1666666666666665</v>
+        <v>0.106111111111111</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="H9">
-        <v>0.25</v>
+        <v>0.1285714285714287</v>
       </c>
       <c r="I9">
-        <v>0.15625</v>
+        <v>-0.110665820637528</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2734,28 +2734,28 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>0.7222222222222224</v>
+        <v>0.8138888888888893</v>
       </c>
       <c r="E10">
-        <v>0.40625</v>
+        <v>0.446875</v>
       </c>
       <c r="F10">
-        <v>0.1111111111111109</v>
+        <v>0.1449901348108304</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.08554040404040406</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0864499440300356</v>
       </c>
       <c r="I10">
-        <v>-0.1581138830084187</v>
+        <v>-0.01562277663114265</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2769,22 +2769,22 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.8055555555555567</v>
+        <v>0.8611111111111129</v>
       </c>
       <c r="E11">
         <v>0.4921875</v>
       </c>
       <c r="F11">
-        <v>0.1683006535947714</v>
+        <v>0.1793506493506492</v>
       </c>
       <c r="G11">
-        <v>0.2222222222222218</v>
+        <v>0.2857142857142854</v>
       </c>
       <c r="H11">
-        <v>0.2380952380952375</v>
+        <v>0.2631578947368424</v>
       </c>
       <c r="I11">
-        <v>0.1135923668494131</v>
+        <v>0.2132007163556105</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2792,28 +2792,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>0.833333333333333</v>
+        <v>0.7311111111111116</v>
       </c>
       <c r="E12">
-        <v>0.42578125</v>
+        <v>0.44046875</v>
       </c>
       <c r="F12">
-        <v>0.1666666666666665</v>
+        <v>0.1350660654695691</v>
       </c>
       <c r="G12">
-        <v>0.25</v>
+        <v>0.1789999999999998</v>
       </c>
       <c r="H12">
-        <v>0.25</v>
+        <v>0.2136363636363633</v>
       </c>
       <c r="I12">
-        <v>0.15625</v>
+        <v>0.03942099788303075</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2821,28 +2821,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>0.6944444444444433</v>
+        <v>0.8200000000000004</v>
       </c>
       <c r="E13">
-        <v>0.4765625</v>
+        <v>0.459921875</v>
       </c>
       <c r="F13">
-        <v>0.1464646464646467</v>
+        <v>0.1631396729658446</v>
       </c>
       <c r="G13">
-        <v>0.2666666666666665</v>
+        <v>0.2129018759018758</v>
       </c>
       <c r="H13">
-        <v>0.3703703703703707</v>
+        <v>0.2145962361437189</v>
       </c>
       <c r="I13">
-        <v>0.1492405014489274</v>
+        <v>0.1146034186259953</v>
       </c>
     </row>
   </sheetData>
